--- a/GameAssets/Tables/develop/Weapon.xlsx
+++ b/GameAssets/Tables/develop/Weapon.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="武器&amp;Weapon" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -63,6 +63,15 @@
     <t>生成位置</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -73,15 +82,6 @@
   </si>
   <si>
     <t>spawnPos</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>float[]</t>
   </si>
   <si>
     <t>DesertEagle</t>
@@ -147,14 +147,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,41 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -211,14 +176,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,6 +220,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -308,7 +280,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,49 +327,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,121 +465,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,21 +518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,6 +550,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,148 +623,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,52 +778,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1133,7 +1126,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1164,18 +1157,18 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>

--- a/GameAssets/Tables/develop/Weapon.xlsx
+++ b/GameAssets/Tables/develop/Weapon.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>主键</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>-0.189:0.042</t>
+  </si>
+  <si>
+    <t>2007</t>
   </si>
   <si>
     <t>ShotGun</t>
@@ -1126,7 +1129,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1279,17 +1282,17 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>2007</v>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1300,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1314,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Weapon.xlsx
+++ b/GameAssets/Tables/develop/Weapon.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>主键</t>
   </si>
@@ -63,6 +63,9 @@
     <t>生成位置</t>
   </si>
   <si>
+    <t>子弹</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>float[]</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
   </si>
   <si>
     <t>spawnPos</t>
+  </si>
+  <si>
+    <t>bullets</t>
   </si>
   <si>
     <t>DesertEagle</t>
@@ -1126,22 +1135,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="37.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,33 +1163,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1191,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1205,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1219,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1233,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1247,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1261,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1275,24 +1293,24 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1303,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1317,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Weapon.xlsx
+++ b/GameAssets/Tables/develop/Weapon.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>主键</t>
   </si>
@@ -66,6 +66,9 @@
     <t>子弹</t>
   </si>
   <si>
+    <t>战斗模式</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -93,61 +96,91 @@
     <t>bullets</t>
   </si>
   <si>
+    <t>fireTypes</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>ShotGun</t>
+  </si>
+  <si>
+    <t>-0.21:-0.168</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>DesertEagle</t>
   </si>
   <si>
     <t>-0.115:-0.094</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>LaserPistol</t>
   </si>
   <si>
     <t>-0.056:-0.07</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>LaserRifle</t>
   </si>
   <si>
     <t>0:-0.098</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>Pistol</t>
   </si>
   <si>
     <t>0.004:-0.118</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>Revolver</t>
   </si>
   <si>
     <t>-0.161:-0.154</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>Rifle</t>
   </si>
   <si>
     <t>-0.182:-0.14</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>RocketLauncher</t>
   </si>
   <si>
     <t>-0.189:0.042</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>ShotGun</t>
-  </si>
-  <si>
-    <t>-0.21:-0.168</t>
+    <t>2008</t>
   </si>
   <si>
     <t>Snipe</t>
   </si>
   <si>
     <t>-0.049:-0.105</t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
   <si>
     <t>SubmachineGun</t>
@@ -1135,22 +1168,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="37.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="35.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,179 +1200,188 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2000</v>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>2001</v>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>2002</v>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>2003</v>
+      <c r="A7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>2004</v>
+      <c r="A8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>2005</v>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>2006</v>
+      <c r="A10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>2008</v>
+      <c r="A12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>2009</v>
+      <c r="A13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Weapon.xlsx
+++ b/GameAssets/Tables/develop/Weapon.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>主键</t>
   </si>
@@ -66,9 +66,6 @@
     <t>子弹</t>
   </si>
   <si>
-    <t>战斗模式</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>bullets</t>
   </si>
   <si>
-    <t>fireTypes</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -106,6 +100,9 @@
   </si>
   <si>
     <t>-0.21:-0.168</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
   <si>
     <t>2001</t>
@@ -1168,13 +1165,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
@@ -1184,7 +1181,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,188 +1197,209 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
